--- a/field_lab_data/soil_vwc.xlsx
+++ b/field_lab_data/soil_vwc.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29E501C-EC53-4228-9F81-9EDAAEEBFEF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -286,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -604,11 +603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,6 +682,9 @@
       <c r="F2" s="2">
         <v>6.2</v>
       </c>
+      <c r="G2" s="2">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -703,6 +705,9 @@
       <c r="F3" s="2">
         <v>5.4</v>
       </c>
+      <c r="G3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -723,6 +728,9 @@
       <c r="F4" s="2">
         <v>5.7</v>
       </c>
+      <c r="G4" s="2">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -743,6 +751,9 @@
       <c r="F5" s="2">
         <v>5.4</v>
       </c>
+      <c r="G5" s="2">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -763,6 +774,9 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
+      <c r="G6" s="2">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -783,6 +797,9 @@
       <c r="F7" s="2">
         <v>4.8</v>
       </c>
+      <c r="G7" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -803,6 +820,9 @@
       <c r="F8" s="2">
         <v>3.8</v>
       </c>
+      <c r="G8" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -823,6 +843,9 @@
       <c r="F9" s="2">
         <v>4.5999999999999996</v>
       </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -843,6 +866,9 @@
       <c r="F10" s="2">
         <v>5.3</v>
       </c>
+      <c r="G10" s="2">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -863,6 +889,9 @@
       <c r="F11" s="2">
         <v>5.5</v>
       </c>
+      <c r="G11" s="2">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -883,6 +912,9 @@
       <c r="F12" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="G12" s="2">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -903,6 +935,9 @@
       <c r="F13" s="2">
         <v>6.8</v>
       </c>
+      <c r="G13" s="2">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -923,6 +958,9 @@
       <c r="F14" s="2">
         <v>2.8</v>
       </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -943,6 +981,9 @@
       <c r="F15" s="2">
         <v>4.8</v>
       </c>
+      <c r="G15" s="2">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -963,8 +1004,11 @@
       <c r="F16" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -983,8 +1027,11 @@
       <c r="F17" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1003,8 +1050,11 @@
       <c r="F18" s="2">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1023,8 +1073,11 @@
       <c r="F19" s="2">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1043,8 +1096,11 @@
       <c r="F20" s="2">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1063,8 +1119,11 @@
       <c r="F21" s="2">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1083,8 +1142,11 @@
       <c r="F22" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1103,8 +1165,11 @@
       <c r="F23" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1123,8 +1188,11 @@
       <c r="F24" s="2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1143,8 +1211,11 @@
       <c r="F25" s="2">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1163,8 +1234,11 @@
       <c r="F26" s="2">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1183,8 +1257,11 @@
       <c r="F27" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1203,8 +1280,11 @@
       <c r="F28" s="2">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1223,8 +1303,11 @@
       <c r="F29" s="2">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1243,8 +1326,11 @@
       <c r="F30" s="2">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1263,8 +1349,11 @@
       <c r="F31" s="2">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1283,8 +1372,11 @@
       <c r="F32" s="2">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1303,8 +1395,11 @@
       <c r="F33" s="2">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1323,8 +1418,11 @@
       <c r="F34" s="2">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1343,8 +1441,11 @@
       <c r="F35" s="2">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1363,8 +1464,11 @@
       <c r="F36" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1383,8 +1487,11 @@
       <c r="F37" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1403,8 +1510,11 @@
       <c r="F38" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1423,8 +1533,11 @@
       <c r="F39" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1443,8 +1556,11 @@
       <c r="F40" s="2">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1463,8 +1579,11 @@
       <c r="F41" s="2">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1483,8 +1602,11 @@
       <c r="F42" s="2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1503,8 +1625,11 @@
       <c r="F43" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1523,8 +1648,11 @@
       <c r="F44" s="2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1543,8 +1671,11 @@
       <c r="F45" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1563,8 +1694,11 @@
       <c r="F46" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1583,8 +1717,11 @@
       <c r="F47" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1603,8 +1740,11 @@
       <c r="F48" s="2">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1623,8 +1763,11 @@
       <c r="F49" s="2">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -1643,8 +1786,11 @@
       <c r="F50" s="2">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -1663,8 +1809,11 @@
       <c r="F51" s="2">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1683,8 +1832,11 @@
       <c r="F52" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1703,8 +1855,11 @@
       <c r="F53" s="2">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1723,8 +1878,11 @@
       <c r="F54" s="2">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1743,8 +1901,11 @@
       <c r="F55" s="2">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1763,8 +1924,11 @@
       <c r="F56" s="2">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1783,8 +1947,11 @@
       <c r="F57" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1803,8 +1970,11 @@
       <c r="F58" s="2">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -1823,8 +1993,11 @@
       <c r="F59" s="2">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -1843,8 +2016,11 @@
       <c r="F60" s="2">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -1863,8 +2039,11 @@
       <c r="F61" s="2">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1883,8 +2062,11 @@
       <c r="F62" s="2">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -1903,8 +2085,11 @@
       <c r="F63" s="2">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1923,8 +2108,11 @@
       <c r="F64" s="2">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -1943,8 +2131,11 @@
       <c r="F65" s="2">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -1963,8 +2154,11 @@
       <c r="F66" s="2">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
@@ -1983,8 +2177,11 @@
       <c r="F67" s="2">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
@@ -2003,8 +2200,11 @@
       <c r="F68" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2023,8 +2223,11 @@
       <c r="F69" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
@@ -2043,8 +2246,11 @@
       <c r="F70" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2063,8 +2269,11 @@
       <c r="F71" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2083,8 +2292,11 @@
       <c r="F72" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
@@ -2102,6 +2314,9 @@
       </c>
       <c r="F73" s="2">
         <v>3.3</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/field_lab_data/soil_vwc.xlsx
+++ b/field_lab_data/soil_vwc.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FB813-06B1-4B2C-9A7A-F8A9B83355E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="90">
   <si>
     <t>cut+manure</t>
   </si>
@@ -63,9 +64,6 @@
     <t>vwc_november</t>
   </si>
   <si>
-    <t>plot_id</t>
-  </si>
-  <si>
     <t>1_A</t>
   </si>
   <si>
@@ -280,12 +278,24 @@
   </si>
   <si>
     <t>24_C</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>bahia</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>plot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -603,1720 +613,1943 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G15" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="F18" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="G19" s="2">
         <v>8.9</v>
       </c>
-      <c r="F7" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>12.3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="E17" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E18" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>10.3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="H19" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G19" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
+      <c r="B20">
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>9.1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="H20" s="2">
         <v>5.6</v>
       </c>
-      <c r="G20" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
+      <c r="B21">
+        <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="F21" s="2">
         <v>10.6</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>7.9</v>
       </c>
-      <c r="F21" s="2">
+      <c r="H21" s="2">
         <v>4.7</v>
       </c>
-      <c r="G21" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
+      <c r="B22">
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
         <v>9.1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>8.1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="H22" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G22" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
-        <v>36</v>
+      <c r="B23">
+        <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="F23" s="2">
         <v>9.9</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F23" s="2">
+      <c r="H23" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G23" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
-        <v>37</v>
+      <c r="B24">
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
         <v>9.5</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>6.6</v>
       </c>
-      <c r="F24" s="2">
+      <c r="H24" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G24" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
-        <v>38</v>
+      <c r="B25">
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
         <v>12.8</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>10.3</v>
       </c>
-      <c r="F25" s="2">
+      <c r="H25" s="2">
         <v>4.8</v>
       </c>
-      <c r="G25" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
-        <v>39</v>
+      <c r="B26">
+        <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="2">
+      <c r="F26" s="2">
         <v>12.9</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F26" s="2">
+      <c r="H26" s="2">
         <v>4.2</v>
       </c>
-      <c r="G26" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
-        <v>40</v>
+      <c r="B27">
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
         <v>11.2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>8.9</v>
       </c>
-      <c r="F27" s="2">
+      <c r="H27" s="2">
         <v>3.9</v>
       </c>
-      <c r="G27" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
+      <c r="B28">
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <v>11.6</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>9.1</v>
       </c>
-      <c r="F28" s="2">
+      <c r="H28" s="2">
         <v>5.3</v>
       </c>
-      <c r="G28" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>42</v>
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="2">
+      <c r="F29" s="2">
         <v>15.8</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>11</v>
       </c>
-      <c r="F29" s="2">
+      <c r="H29" s="2">
         <v>6.7</v>
       </c>
-      <c r="G29" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
-        <v>43</v>
+      <c r="B30">
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
         <v>15.1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>10.5</v>
       </c>
-      <c r="F30" s="2">
+      <c r="H30" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G30" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
-        <v>44</v>
+      <c r="B31">
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
         <v>11.4</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>9.1</v>
       </c>
-      <c r="F31" s="2">
+      <c r="H31" s="2">
         <v>4.3</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
-        <v>45</v>
+      <c r="B32">
+        <v>4</v>
       </c>
       <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="2">
+      <c r="F32" s="2">
         <v>19.5</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>12.8</v>
       </c>
-      <c r="F32" s="2">
+      <c r="H32" s="2">
         <v>6.9</v>
       </c>
-      <c r="G32" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
-        <v>46</v>
+      <c r="B33">
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
         <v>21.8</v>
       </c>
-      <c r="E33" s="2">
+      <c r="G33" s="2">
         <v>13.4</v>
       </c>
-      <c r="F33" s="2">
+      <c r="H33" s="2">
         <v>5.2</v>
       </c>
-      <c r="G33" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
-        <v>47</v>
+      <c r="B34">
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
         <v>18.3</v>
       </c>
-      <c r="E34" s="2">
+      <c r="G34" s="2">
         <v>12.2</v>
       </c>
-      <c r="F34" s="2">
+      <c r="H34" s="2">
         <v>7.3</v>
       </c>
-      <c r="G34" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
-        <v>48</v>
+      <c r="B35">
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
         <v>16.7</v>
       </c>
-      <c r="E35" s="2">
+      <c r="G35" s="2">
         <v>11.8</v>
       </c>
-      <c r="F35" s="2">
+      <c r="H35" s="2">
         <v>4.8</v>
       </c>
-      <c r="G35" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
-        <v>49</v>
+      <c r="B36">
+        <v>4</v>
       </c>
       <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="2">
+      <c r="F36" s="2">
         <v>15.8</v>
       </c>
-      <c r="E36" s="2">
+      <c r="G36" s="2">
         <v>10.1</v>
       </c>
-      <c r="F36" s="2">
+      <c r="H36" s="2">
         <v>4.5</v>
       </c>
-      <c r="G36" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" t="s">
-        <v>50</v>
+      <c r="B37">
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
         <v>16.5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>10.5</v>
       </c>
-      <c r="F37" s="2">
+      <c r="H37" s="2">
         <v>5</v>
       </c>
-      <c r="G37" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" t="s">
-        <v>51</v>
+      <c r="B38">
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
         <v>9.1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G38" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
-        <v>52</v>
+      <c r="B39">
+        <v>5</v>
       </c>
       <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="2">
+      <c r="F39" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E39" s="2">
+      <c r="G39" s="2">
         <v>8.9</v>
       </c>
-      <c r="F39" s="2">
+      <c r="H39" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G39" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
-        <v>53</v>
+      <c r="B40">
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
         <v>9.4</v>
       </c>
-      <c r="E40" s="2">
+      <c r="G40" s="2">
         <v>10.1</v>
       </c>
-      <c r="F40" s="2">
+      <c r="H40" s="2">
         <v>5.8</v>
       </c>
-      <c r="G40" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
-        <v>54</v>
+      <c r="B41">
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
         <v>6.7</v>
       </c>
-      <c r="E41" s="2">
+      <c r="G41" s="2">
         <v>6.7</v>
       </c>
-      <c r="F41" s="2">
+      <c r="H41" s="2">
         <v>3.2</v>
       </c>
-      <c r="G41" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
-        <v>55</v>
+      <c r="B42">
+        <v>5</v>
       </c>
       <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="2">
+      <c r="F42" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="E42" s="2">
+      <c r="G42" s="2">
         <v>7.9</v>
       </c>
-      <c r="F42" s="2">
+      <c r="H42" s="2">
         <v>3.6</v>
       </c>
-      <c r="G42" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43" t="s">
-        <v>56</v>
+      <c r="B43">
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E43" s="2">
+      <c r="G43" s="2">
         <v>7.8</v>
       </c>
-      <c r="F43" s="2">
+      <c r="H43" s="2">
         <v>3.5</v>
       </c>
-      <c r="G43" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" t="s">
-        <v>57</v>
+      <c r="B44">
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
         <v>6.1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="G44" s="2">
         <v>5.6</v>
       </c>
-      <c r="F44" s="2">
+      <c r="H44" s="2">
         <v>3.6</v>
       </c>
-      <c r="G44" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>58</v>
+      <c r="B45">
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
         <v>7</v>
       </c>
-      <c r="E45" s="2">
+      <c r="G45" s="2">
         <v>6.4</v>
       </c>
-      <c r="F45" s="2">
+      <c r="H45" s="2">
         <v>3.9</v>
       </c>
-      <c r="G45" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
-        <v>59</v>
+      <c r="B46">
+        <v>5</v>
       </c>
       <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="2">
+      <c r="F46" s="2">
         <v>7.2</v>
       </c>
-      <c r="E46" s="2">
+      <c r="G46" s="2">
         <v>6.4</v>
       </c>
-      <c r="F46" s="2">
+      <c r="H46" s="2">
         <v>3.5</v>
       </c>
-      <c r="G46" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
-      <c r="B47" t="s">
-        <v>60</v>
+      <c r="B47">
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
         <v>13.6</v>
       </c>
-      <c r="E47" s="2">
+      <c r="G47" s="2">
         <v>6.9</v>
       </c>
-      <c r="F47" s="2">
+      <c r="H47" s="2">
         <v>3.9</v>
       </c>
-      <c r="G47" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" t="s">
-        <v>61</v>
+      <c r="B48">
+        <v>6</v>
       </c>
       <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="2">
+      <c r="F48" s="2">
         <v>11.9</v>
       </c>
-      <c r="E48" s="2">
+      <c r="G48" s="2">
         <v>11.2</v>
       </c>
-      <c r="F48" s="2">
+      <c r="H48" s="2">
         <v>6.6</v>
       </c>
-      <c r="G48" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
-        <v>62</v>
+      <c r="B49">
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E49" s="2">
+      <c r="G49" s="2">
         <v>8.6</v>
       </c>
-      <c r="F49" s="2">
+      <c r="H49" s="2">
         <v>4.2</v>
       </c>
-      <c r="G49" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
-        <v>63</v>
+      <c r="B50">
+        <v>6</v>
       </c>
       <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="2">
+      <c r="F50" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E50" s="2">
+      <c r="G50" s="2">
         <v>8.1</v>
       </c>
-      <c r="F50" s="2">
+      <c r="H50" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G50" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
-      <c r="B51" t="s">
-        <v>64</v>
+      <c r="B51">
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E51" s="2">
+      <c r="G51" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F51" s="2">
+      <c r="H51" s="2">
         <v>5.2</v>
       </c>
-      <c r="G51" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" t="s">
-        <v>65</v>
+      <c r="B52">
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="E52" s="2">
+      <c r="G52" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F52" s="2">
+      <c r="H52" s="2">
         <v>3.9</v>
       </c>
-      <c r="G52" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
-        <v>66</v>
+      <c r="B53">
+        <v>6</v>
       </c>
       <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="2">
+      <c r="F53" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E53" s="2">
+      <c r="G53" s="2">
         <v>9.1</v>
       </c>
-      <c r="F53" s="2">
+      <c r="H53" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G53" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
-        <v>67</v>
+      <c r="B54">
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
         <v>10.4</v>
       </c>
-      <c r="E54" s="2">
+      <c r="G54" s="2">
         <v>7.6</v>
       </c>
-      <c r="F54" s="2">
+      <c r="H54" s="2">
         <v>4.3</v>
       </c>
-      <c r="G54" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
-      <c r="B55" t="s">
-        <v>68</v>
+      <c r="B55">
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2">
         <v>10.7</v>
       </c>
-      <c r="E55" s="2">
+      <c r="G55" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F55" s="2">
+      <c r="H55" s="2">
         <v>5.6</v>
       </c>
-      <c r="G55" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
-      <c r="B56" t="s">
-        <v>69</v>
+      <c r="B56">
+        <v>7</v>
       </c>
       <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="2">
+      <c r="F56" s="2">
         <v>11.8</v>
       </c>
-      <c r="E56" s="2">
+      <c r="G56" s="2">
         <v>8.9</v>
       </c>
-      <c r="F56" s="2">
+      <c r="H56" s="2">
         <v>5.2</v>
       </c>
-      <c r="G56" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
-      <c r="B57" t="s">
-        <v>70</v>
+      <c r="B57">
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
         <v>14.3</v>
       </c>
-      <c r="E57" s="2">
+      <c r="G57" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F57" s="2">
+      <c r="H57" s="2">
         <v>6</v>
       </c>
-      <c r="G57" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
-      <c r="B58" t="s">
-        <v>71</v>
+      <c r="B58">
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2">
         <v>13.3</v>
       </c>
-      <c r="E58" s="2">
+      <c r="G58" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F58" s="2">
+      <c r="H58" s="2">
         <v>6.2</v>
       </c>
-      <c r="G58" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
-      <c r="B59" t="s">
-        <v>72</v>
+      <c r="B59">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
         <v>9.9</v>
       </c>
-      <c r="E59" s="2">
+      <c r="G59" s="2">
         <v>6.7</v>
       </c>
-      <c r="F59" s="2">
+      <c r="H59" s="2">
         <v>3.7</v>
       </c>
-      <c r="G59" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
-        <v>73</v>
+      <c r="B60">
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2">
+        <v>88</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
         <v>11.7</v>
       </c>
-      <c r="E60" s="2">
+      <c r="G60" s="2">
         <v>8.5</v>
       </c>
-      <c r="F60" s="2">
+      <c r="H60" s="2">
         <v>4.8</v>
       </c>
-      <c r="G60" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
-        <v>74</v>
+      <c r="B61">
+        <v>7</v>
       </c>
       <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="2">
+      <c r="F61" s="2">
         <v>12.9</v>
       </c>
-      <c r="E61" s="2">
+      <c r="G61" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F61" s="2">
+      <c r="H61" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G61" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
-      <c r="B62" t="s">
-        <v>75</v>
+      <c r="B62">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2">
+        <v>88</v>
+      </c>
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
         <v>12.3</v>
       </c>
-      <c r="E62" s="2">
+      <c r="G62" s="2">
         <v>10.9</v>
       </c>
-      <c r="F62" s="2">
+      <c r="H62" s="2">
         <v>6.1</v>
       </c>
-      <c r="G62" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" t="s">
-        <v>76</v>
+      <c r="B63">
+        <v>7</v>
       </c>
       <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="2">
+      <c r="F63" s="2">
         <v>11.9</v>
       </c>
-      <c r="E63" s="2">
+      <c r="G63" s="2">
         <v>9.5</v>
       </c>
-      <c r="F63" s="2">
+      <c r="H63" s="2">
         <v>4.8</v>
       </c>
-      <c r="G63" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
-      <c r="B64" t="s">
-        <v>77</v>
+      <c r="B64">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
         <v>12.1</v>
       </c>
-      <c r="E64" s="2">
+      <c r="G64" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F64" s="2">
+      <c r="H64" s="2">
         <v>5.2</v>
       </c>
-      <c r="G64" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
-      <c r="B65" t="s">
-        <v>78</v>
+      <c r="B65">
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="2">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
         <v>8.5</v>
       </c>
-      <c r="E65" s="2">
+      <c r="G65" s="2">
         <v>5.7</v>
       </c>
-      <c r="F65" s="2">
+      <c r="H65" s="2">
         <v>3.1</v>
       </c>
-      <c r="G65" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
-      <c r="B66" t="s">
-        <v>79</v>
+      <c r="B66">
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
         <v>12.4</v>
       </c>
-      <c r="E66" s="2">
+      <c r="G66" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F66" s="2">
+      <c r="H66" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G66" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
-      <c r="B67" t="s">
-        <v>80</v>
+      <c r="B67">
+        <v>8</v>
       </c>
       <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="2">
+      <c r="F67" s="2">
         <v>14.7</v>
       </c>
-      <c r="E67" s="2">
+      <c r="G67" s="2">
         <v>12.2</v>
       </c>
-      <c r="F67" s="2">
+      <c r="H67" s="2">
         <v>6.1</v>
       </c>
-      <c r="G67" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
-      <c r="B68" t="s">
-        <v>81</v>
+      <c r="B68">
+        <v>8</v>
       </c>
       <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="2">
+      <c r="F68" s="2">
         <v>10.3</v>
       </c>
-      <c r="E68" s="2">
+      <c r="G68" s="2">
         <v>8.6</v>
       </c>
-      <c r="F68" s="2">
+      <c r="H68" s="2">
         <v>0.3</v>
       </c>
-      <c r="G68" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
-        <v>82</v>
+      <c r="B69">
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
+        <v>87</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E69" s="2">
+      <c r="G69" s="2">
         <v>8.1</v>
       </c>
-      <c r="F69" s="2">
+      <c r="H69" s="2">
         <v>0.9</v>
       </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
-      <c r="B70" t="s">
-        <v>83</v>
+      <c r="B70">
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="2">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2">
         <v>11.2</v>
       </c>
-      <c r="E70" s="2">
+      <c r="G70" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F70" s="2">
+      <c r="H70" s="2">
         <v>3.8</v>
       </c>
-      <c r="G70" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
-      <c r="B71" t="s">
-        <v>84</v>
+      <c r="B71">
+        <v>8</v>
       </c>
       <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="2">
+      <c r="F71" s="2">
         <v>10.5</v>
       </c>
-      <c r="E71" s="2">
+      <c r="G71" s="2">
         <v>7.6</v>
       </c>
-      <c r="F71" s="2">
+      <c r="H71" s="2">
         <v>3.4</v>
       </c>
-      <c r="G71" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
-      <c r="B72" t="s">
-        <v>85</v>
+      <c r="B72">
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2">
+        <v>87</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2">
         <v>13.3</v>
       </c>
-      <c r="E72" s="2">
+      <c r="G72" s="2">
         <v>8.9</v>
       </c>
-      <c r="F72" s="2">
+      <c r="H72" s="2">
         <v>3.8</v>
       </c>
-      <c r="G72" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
-      <c r="B73" t="s">
-        <v>86</v>
+      <c r="B73">
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
         <v>10</v>
       </c>
-      <c r="E73" s="2">
+      <c r="G73" s="2">
         <v>6.1</v>
       </c>
-      <c r="F73" s="2">
+      <c r="H73" s="2">
         <v>3.3</v>
-      </c>
-      <c r="G73" s="2">
-        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/field_lab_data/soil_vwc.xlsx
+++ b/field_lab_data/soil_vwc.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FB813-06B1-4B2C-9A7A-F8A9B83355E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">data!$C$2:$C$73</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">data!$G$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">data!$G$2:$G$73</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">data!$C$2:$C$73</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">data!$F$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">data!$F$2:$F$73</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>cut+manure</t>
   </si>
@@ -64,6 +71,9 @@
     <t>vwc_november</t>
   </si>
   <si>
+    <t>plot_id</t>
+  </si>
+  <si>
     <t>1_A</t>
   </si>
   <si>
@@ -278,24 +288,12 @@
   </si>
   <si>
     <t>24_C</t>
-  </si>
-  <si>
-    <t>composition</t>
-  </si>
-  <si>
-    <t>bahia</t>
-  </si>
-  <si>
-    <t>mixed</t>
-  </si>
-  <si>
-    <t>plot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -613,1943 +611,1936 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="G6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E15" s="2">
         <v>9.5</v>
       </c>
-      <c r="H4" s="2">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F15" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>8.9</v>
       </c>
-      <c r="H7" s="2">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12.3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
+      <c r="E16" s="2">
+        <v>8.4</v>
       </c>
       <c r="F16" s="2">
-        <v>8.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G16" s="2">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H16" s="2">
-        <v>4.0999999999999996</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17">
-        <v>2</v>
+      <c r="B17" t="s">
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8.5</v>
       </c>
       <c r="F17" s="2">
-        <v>9.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G17" s="2">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
       <c r="H17" s="2">
-        <v>4.0999999999999996</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="B18" t="s">
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.1</v>
       </c>
       <c r="F18" s="2">
-        <v>9.6999999999999993</v>
+        <v>4.2</v>
       </c>
       <c r="G18" s="2">
-        <v>7.1</v>
+        <v>0.4</v>
       </c>
       <c r="H18" s="2">
-        <v>4.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8.9</v>
       </c>
       <c r="F19" s="2">
-        <v>10.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G19" s="2">
-        <v>8.9</v>
+        <v>0.9</v>
       </c>
       <c r="H19" s="2">
-        <v>5.0999999999999996</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20">
-        <v>3</v>
+      <c r="B20" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.1</v>
       </c>
       <c r="F20" s="2">
-        <v>8.3000000000000007</v>
+        <v>5.6</v>
       </c>
       <c r="G20" s="2">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H20" s="2">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>3</v>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.9</v>
       </c>
       <c r="F21" s="2">
-        <v>10.6</v>
+        <v>4.7</v>
       </c>
       <c r="G21" s="2">
-        <v>7.9</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="2">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>3</v>
+      <c r="B22" t="s">
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8.1</v>
       </c>
       <c r="F22" s="2">
-        <v>9.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G22" s="2">
-        <v>8.1</v>
+        <v>0.4</v>
       </c>
       <c r="H22" s="2">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23">
-        <v>3</v>
+      <c r="B23" t="s">
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F23" s="2">
-        <v>9.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G23" s="2">
-        <v>9.1999999999999993</v>
+        <v>0.2</v>
       </c>
       <c r="H23" s="2">
-        <v>4.0999999999999996</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24">
-        <v>3</v>
+      <c r="B24" t="s">
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6.6</v>
       </c>
       <c r="F24" s="2">
-        <v>9.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G24" s="2">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H24" s="2">
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25">
-        <v>3</v>
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10.3</v>
       </c>
       <c r="F25" s="2">
-        <v>12.8</v>
+        <v>4.8</v>
       </c>
       <c r="G25" s="2">
-        <v>10.3</v>
+        <v>0.8</v>
       </c>
       <c r="H25" s="2">
-        <v>4.8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26">
-        <v>3</v>
+      <c r="B26" t="s">
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="F26" s="2">
-        <v>12.9</v>
+        <v>4.2</v>
       </c>
       <c r="G26" s="2">
-        <v>8.8000000000000007</v>
+        <v>0.1</v>
       </c>
       <c r="H26" s="2">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27">
-        <v>3</v>
+      <c r="B27" t="s">
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8.9</v>
       </c>
       <c r="F27" s="2">
-        <v>11.2</v>
+        <v>3.9</v>
       </c>
       <c r="G27" s="2">
-        <v>8.9</v>
+        <v>0.6</v>
       </c>
       <c r="H27" s="2">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="s">
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9.1</v>
       </c>
       <c r="F28" s="2">
-        <v>11.6</v>
+        <v>5.3</v>
       </c>
       <c r="G28" s="2">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="2">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="B29" t="s">
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11</v>
       </c>
       <c r="F29" s="2">
-        <v>15.8</v>
+        <v>6.7</v>
       </c>
       <c r="G29" s="2">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="2">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30">
-        <v>4</v>
+      <c r="B30" t="s">
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10.5</v>
       </c>
       <c r="F30" s="2">
-        <v>15.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G30" s="2">
-        <v>10.5</v>
+        <v>0.2</v>
       </c>
       <c r="H30" s="2">
-        <v>4.9000000000000004</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31">
-        <v>4</v>
+      <c r="B31" t="s">
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9.1</v>
       </c>
       <c r="F31" s="2">
-        <v>11.4</v>
+        <v>4.3</v>
       </c>
       <c r="G31" s="2">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>4.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32">
-        <v>4</v>
+      <c r="B32" t="s">
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>12.8</v>
       </c>
       <c r="F32" s="2">
-        <v>19.5</v>
+        <v>6.9</v>
       </c>
       <c r="G32" s="2">
-        <v>12.8</v>
+        <v>0.7</v>
       </c>
       <c r="H32" s="2">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33">
-        <v>4</v>
+      <c r="B33" t="s">
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>13.4</v>
       </c>
       <c r="F33" s="2">
-        <v>21.8</v>
+        <v>5.2</v>
       </c>
       <c r="G33" s="2">
-        <v>13.4</v>
+        <v>0.9</v>
       </c>
       <c r="H33" s="2">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34">
-        <v>4</v>
+      <c r="B34" t="s">
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12.2</v>
       </c>
       <c r="F34" s="2">
-        <v>18.3</v>
+        <v>7.3</v>
       </c>
       <c r="G34" s="2">
-        <v>12.2</v>
+        <v>0.7</v>
       </c>
       <c r="H34" s="2">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35">
-        <v>4</v>
+      <c r="B35" t="s">
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11.8</v>
       </c>
       <c r="F35" s="2">
-        <v>16.7</v>
+        <v>4.8</v>
       </c>
       <c r="G35" s="2">
-        <v>11.8</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="2">
-        <v>4.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36">
-        <v>4</v>
+      <c r="B36" t="s">
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10.1</v>
       </c>
       <c r="F36" s="2">
-        <v>15.8</v>
+        <v>4.5</v>
       </c>
       <c r="G36" s="2">
-        <v>10.1</v>
+        <v>0.4</v>
       </c>
       <c r="H36" s="2">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37">
-        <v>4</v>
+      <c r="B37" t="s">
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10.5</v>
       </c>
       <c r="F37" s="2">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2">
-        <v>10.5</v>
+        <v>0.2</v>
       </c>
       <c r="H37" s="2">
-        <v>5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38">
-        <v>5</v>
+      <c r="B38" t="s">
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="F38" s="2">
-        <v>9.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G38" s="2">
-        <v>8.8000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="2">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
-      <c r="B39">
-        <v>5</v>
+      <c r="B39" t="s">
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E39" s="2">
+        <v>8.9</v>
       </c>
       <c r="F39" s="2">
-        <v>9.6999999999999993</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G39" s="2">
-        <v>8.9</v>
+        <v>0.8</v>
       </c>
       <c r="H39" s="2">
-        <v>4.0999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
-      <c r="B40">
-        <v>5</v>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10.1</v>
       </c>
       <c r="F40" s="2">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="G40" s="2">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H40" s="2">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
-      <c r="B41">
-        <v>5</v>
+      <c r="B41" t="s">
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6.7</v>
       </c>
       <c r="F41" s="2">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="G41" s="2">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="H41" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42">
-        <v>5</v>
+      <c r="B42" t="s">
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <v>7.9</v>
       </c>
       <c r="F42" s="2">
-        <v>10.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="G42" s="2">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="2">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43">
-        <v>5</v>
+      <c r="B43" t="s">
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7.8</v>
       </c>
       <c r="F43" s="2">
-        <v>8.3000000000000007</v>
+        <v>3.5</v>
       </c>
       <c r="G43" s="2">
-        <v>7.8</v>
+        <v>0.4</v>
       </c>
       <c r="H43" s="2">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44">
-        <v>5</v>
+      <c r="B44" t="s">
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5.6</v>
       </c>
       <c r="F44" s="2">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="G44" s="2">
-        <v>5.6</v>
+        <v>0.2</v>
       </c>
       <c r="H44" s="2">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45">
-        <v>5</v>
+      <c r="B45" t="s">
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6.4</v>
       </c>
       <c r="F45" s="2">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="G45" s="2">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="H45" s="2">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
-      <c r="B46">
-        <v>5</v>
+      <c r="B46" t="s">
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6.4</v>
       </c>
       <c r="F46" s="2">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="G46" s="2">
-        <v>6.4</v>
+        <v>0.2</v>
       </c>
       <c r="H46" s="2">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
-      <c r="B47">
-        <v>6</v>
+      <c r="B47" t="s">
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6.9</v>
       </c>
       <c r="F47" s="2">
-        <v>13.6</v>
+        <v>3.9</v>
       </c>
       <c r="G47" s="2">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H47" s="2">
-        <v>3.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48">
-        <v>6</v>
+      <c r="B48" t="s">
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="E48" s="2">
+        <v>11.2</v>
       </c>
       <c r="F48" s="2">
-        <v>11.9</v>
+        <v>6.6</v>
       </c>
       <c r="G48" s="2">
-        <v>11.2</v>
+        <v>0.8</v>
       </c>
       <c r="H48" s="2">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49">
-        <v>6</v>
+      <c r="B49" t="s">
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8.6</v>
       </c>
       <c r="F49" s="2">
-        <v>9.1999999999999993</v>
+        <v>4.2</v>
       </c>
       <c r="G49" s="2">
-        <v>8.6</v>
+        <v>0.2</v>
       </c>
       <c r="H49" s="2">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
-      <c r="B50">
-        <v>6</v>
+      <c r="B50" t="s">
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E50" s="2">
+        <v>8.1</v>
       </c>
       <c r="F50" s="2">
-        <v>8.6999999999999993</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G50" s="2">
-        <v>8.1</v>
+        <v>0.4</v>
       </c>
       <c r="H50" s="2">
-        <v>4.9000000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
-      <c r="B51">
-        <v>6</v>
+      <c r="B51" t="s">
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E51" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="F51" s="2">
-        <v>9.6999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="G51" s="2">
-        <v>8.8000000000000007</v>
+        <v>0.2</v>
       </c>
       <c r="H51" s="2">
-        <v>5.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52">
-        <v>6</v>
+      <c r="B52" t="s">
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="F52" s="2">
-        <v>10.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="G52" s="2">
-        <v>8.8000000000000007</v>
+        <v>0.4</v>
       </c>
       <c r="H52" s="2">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53">
-        <v>6</v>
+      <c r="B53" t="s">
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9.1</v>
       </c>
       <c r="F53" s="2">
-        <v>9.6999999999999993</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G53" s="2">
-        <v>9.1</v>
+        <v>0.6</v>
       </c>
       <c r="H53" s="2">
-        <v>5.0999999999999996</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54">
-        <v>6</v>
+      <c r="B54" t="s">
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7.6</v>
       </c>
       <c r="F54" s="2">
-        <v>10.4</v>
+        <v>4.3</v>
       </c>
       <c r="G54" s="2">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H54" s="2">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
-      <c r="B55">
-        <v>6</v>
+      <c r="B55" t="s">
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9.8000000000000007</v>
       </c>
       <c r="F55" s="2">
-        <v>10.7</v>
+        <v>5.6</v>
       </c>
       <c r="G55" s="2">
-        <v>9.8000000000000007</v>
+        <v>0.6</v>
       </c>
       <c r="H55" s="2">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
-      <c r="B56">
-        <v>7</v>
+      <c r="B56" t="s">
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>8.9</v>
       </c>
       <c r="F56" s="2">
-        <v>11.8</v>
+        <v>5.2</v>
       </c>
       <c r="G56" s="2">
-        <v>8.9</v>
+        <v>0.2</v>
       </c>
       <c r="H56" s="2">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
-      <c r="B57">
-        <v>7</v>
+      <c r="B57" t="s">
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="E57" s="2">
+        <v>9.6999999999999993</v>
       </c>
       <c r="F57" s="2">
-        <v>14.3</v>
+        <v>6</v>
       </c>
       <c r="G57" s="2">
-        <v>9.6999999999999993</v>
+        <v>0.8</v>
       </c>
       <c r="H57" s="2">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
-      <c r="B58">
-        <v>7</v>
+      <c r="B58" t="s">
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E58" s="2">
+        <v>9.6999999999999993</v>
       </c>
       <c r="F58" s="2">
-        <v>13.3</v>
+        <v>6.2</v>
       </c>
       <c r="G58" s="2">
-        <v>9.6999999999999993</v>
+        <v>0.1</v>
       </c>
       <c r="H58" s="2">
-        <v>6.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
-      <c r="B59">
-        <v>7</v>
+      <c r="B59" t="s">
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6.7</v>
       </c>
       <c r="F59" s="2">
-        <v>9.9</v>
+        <v>3.7</v>
       </c>
       <c r="G59" s="2">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="H59" s="2">
-        <v>3.7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
-      <c r="B60">
-        <v>7</v>
+      <c r="B60" t="s">
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8.5</v>
       </c>
       <c r="F60" s="2">
-        <v>11.7</v>
+        <v>4.8</v>
       </c>
       <c r="G60" s="2">
-        <v>8.5</v>
+        <v>0.8</v>
       </c>
       <c r="H60" s="2">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
-      <c r="B61">
-        <v>7</v>
+      <c r="B61" t="s">
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E61" s="2">
+        <v>9.3000000000000007</v>
       </c>
       <c r="F61" s="2">
-        <v>12.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G61" s="2">
-        <v>9.3000000000000007</v>
+        <v>0.1</v>
       </c>
       <c r="H61" s="2">
-        <v>4.9000000000000004</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
-      <c r="B62">
-        <v>7</v>
+      <c r="B62" t="s">
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="E62" s="2">
+        <v>10.9</v>
       </c>
       <c r="F62" s="2">
-        <v>12.3</v>
+        <v>6.1</v>
       </c>
       <c r="G62" s="2">
-        <v>10.9</v>
+        <v>0.9</v>
       </c>
       <c r="H62" s="2">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63">
-        <v>7</v>
+      <c r="B63" t="s">
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9.5</v>
       </c>
       <c r="F63" s="2">
-        <v>11.9</v>
+        <v>4.8</v>
       </c>
       <c r="G63" s="2">
-        <v>9.5</v>
+        <v>0.2</v>
       </c>
       <c r="H63" s="2">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
-      <c r="B64">
-        <v>7</v>
+      <c r="B64" t="s">
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>9.6999999999999993</v>
       </c>
       <c r="F64" s="2">
-        <v>12.1</v>
+        <v>5.2</v>
       </c>
       <c r="G64" s="2">
-        <v>9.6999999999999993</v>
+        <v>0.6</v>
       </c>
       <c r="H64" s="2">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
-      <c r="B65">
-        <v>8</v>
+      <c r="B65" t="s">
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E65" s="2">
+        <v>5.7</v>
       </c>
       <c r="F65" s="2">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="G65" s="2">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H65" s="2">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
-      <c r="B66">
-        <v>8</v>
+      <c r="B66" t="s">
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9.6999999999999993</v>
       </c>
       <c r="F66" s="2">
-        <v>12.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G66" s="2">
-        <v>9.6999999999999993</v>
+        <v>0.4</v>
       </c>
       <c r="H66" s="2">
-        <v>4.9000000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
-      <c r="B67">
-        <v>8</v>
+      <c r="B67" t="s">
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="E67" s="2">
+        <v>12.2</v>
       </c>
       <c r="F67" s="2">
-        <v>14.7</v>
+        <v>6.1</v>
       </c>
       <c r="G67" s="2">
-        <v>12.2</v>
+        <v>0.6</v>
       </c>
       <c r="H67" s="2">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
-      <c r="B68">
-        <v>8</v>
+      <c r="B68" t="s">
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>8.6</v>
       </c>
       <c r="F68" s="2">
-        <v>10.3</v>
+        <v>0.3</v>
       </c>
       <c r="G68" s="2">
-        <v>8.6</v>
+        <v>0.2</v>
       </c>
       <c r="H68" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
-      <c r="B69">
-        <v>8</v>
+      <c r="B69" t="s">
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E69" s="2">
+        <v>8.1</v>
       </c>
       <c r="F69" s="2">
-        <v>9.6999999999999993</v>
+        <v>0.9</v>
       </c>
       <c r="G69" s="2">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
-      <c r="B70">
-        <v>8</v>
+      <c r="B70" t="s">
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" t="s">
-        <v>82</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>9.3000000000000007</v>
       </c>
       <c r="F70" s="2">
-        <v>11.2</v>
+        <v>3.8</v>
       </c>
       <c r="G70" s="2">
-        <v>9.3000000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="H70" s="2">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
-      <c r="B71">
-        <v>8</v>
+      <c r="B71" t="s">
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7.6</v>
       </c>
       <c r="F71" s="2">
-        <v>10.5</v>
+        <v>3.4</v>
       </c>
       <c r="G71" s="2">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H71" s="2">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
-      <c r="B72">
-        <v>8</v>
+      <c r="B72" t="s">
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E72" s="2">
+        <v>8.9</v>
       </c>
       <c r="F72" s="2">
-        <v>13.3</v>
+        <v>3.8</v>
       </c>
       <c r="G72" s="2">
-        <v>8.9</v>
+        <v>0.6</v>
       </c>
       <c r="H72" s="2">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
-      <c r="B73">
-        <v>8</v>
+      <c r="B73" t="s">
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>10</v>
+      </c>
+      <c r="E73" s="2">
+        <v>6.1</v>
       </c>
       <c r="F73" s="2">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="G73" s="2">
-        <v>6.1</v>
+        <v>0.3</v>
       </c>
       <c r="H73" s="2">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/field_lab_data/soil_vwc.xlsx
+++ b/field_lab_data/soil_vwc.xlsx
@@ -9,14 +9,6 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">data!$C$2:$C$73</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">data!$G$2:$G$73</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">data!$C$2:$C$73</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">data!$F$2:$F$73</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -614,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,6 +688,9 @@
       <c r="H2" s="2">
         <v>1.4</v>
       </c>
+      <c r="I2" s="2">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -722,6 +717,9 @@
       <c r="H3" s="2">
         <v>1.7</v>
       </c>
+      <c r="I3" s="2">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -748,6 +746,9 @@
       <c r="H4" s="2">
         <v>1.7</v>
       </c>
+      <c r="I4" s="2">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -774,6 +775,9 @@
       <c r="H5" s="2">
         <v>1.3</v>
       </c>
+      <c r="I5" s="2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -800,6 +804,9 @@
       <c r="H6" s="2">
         <v>1.2</v>
       </c>
+      <c r="I6" s="2">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -826,6 +833,9 @@
       <c r="H7" s="2">
         <v>1.6</v>
       </c>
+      <c r="I7" s="2">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -852,6 +862,9 @@
       <c r="H8" s="2">
         <v>0.8</v>
       </c>
+      <c r="I8" s="2">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -878,6 +891,9 @@
       <c r="H9" s="2">
         <v>0.2</v>
       </c>
+      <c r="I9" s="2">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -904,6 +920,9 @@
       <c r="H10" s="2">
         <v>1.4</v>
       </c>
+      <c r="I10" s="2">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -930,6 +949,9 @@
       <c r="H11" s="2">
         <v>1.9</v>
       </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -956,6 +978,9 @@
       <c r="H12" s="2">
         <v>1.7</v>
       </c>
+      <c r="I12" s="2">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -982,6 +1007,9 @@
       <c r="H13" s="2">
         <v>1.8</v>
       </c>
+      <c r="I13" s="2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1008,6 +1036,9 @@
       <c r="H14" s="2">
         <v>1.3</v>
       </c>
+      <c r="I14" s="2">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1034,6 +1065,9 @@
       <c r="H15" s="2">
         <v>0.7</v>
       </c>
+      <c r="I15" s="2">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1060,8 +1094,11 @@
       <c r="H16" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1086,8 +1123,11 @@
       <c r="H17" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1112,8 +1152,11 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1138,8 +1181,11 @@
       <c r="H19" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1164,8 +1210,11 @@
       <c r="H20" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1190,8 +1239,11 @@
       <c r="H21" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1216,8 +1268,11 @@
       <c r="H22" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1242,8 +1297,11 @@
       <c r="H23" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="H24" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1294,8 +1355,11 @@
       <c r="H25" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1320,8 +1384,11 @@
       <c r="H26" s="2">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1346,8 +1413,11 @@
       <c r="H27" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1372,8 +1442,11 @@
       <c r="H28" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1398,8 +1471,11 @@
       <c r="H29" s="2">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1424,8 +1500,11 @@
       <c r="H30" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1450,8 +1529,11 @@
       <c r="H31" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1476,8 +1558,11 @@
       <c r="H32" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1502,8 +1587,11 @@
       <c r="H33" s="2">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1528,8 +1616,11 @@
       <c r="H34" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1554,8 +1645,11 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1580,8 +1674,11 @@
       <c r="H36" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1606,8 +1703,11 @@
       <c r="H37" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1632,8 +1732,11 @@
       <c r="H38" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1658,8 +1761,11 @@
       <c r="H39" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1684,8 +1790,11 @@
       <c r="H40" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1710,8 +1819,11 @@
       <c r="H41" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1736,8 +1848,11 @@
       <c r="H42" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1762,8 +1877,11 @@
       <c r="H43" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1788,8 +1906,11 @@
       <c r="H44" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1814,8 +1935,11 @@
       <c r="H45" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1840,8 +1964,11 @@
       <c r="H46" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1866,8 +1993,11 @@
       <c r="H47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1892,8 +2022,11 @@
       <c r="H48" s="2">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1918,8 +2051,11 @@
       <c r="H49" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -1944,8 +2080,11 @@
       <c r="H50" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -1970,8 +2109,11 @@
       <c r="H51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1996,8 +2138,11 @@
       <c r="H52" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2022,8 +2167,11 @@
       <c r="H53" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -2048,8 +2196,11 @@
       <c r="H54" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2074,8 +2225,11 @@
       <c r="H55" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2100,8 +2254,11 @@
       <c r="H56" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2126,8 +2283,11 @@
       <c r="H57" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2152,8 +2312,11 @@
       <c r="H58" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2178,8 +2341,11 @@
       <c r="H59" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -2204,8 +2370,11 @@
       <c r="H60" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -2230,8 +2399,11 @@
       <c r="H61" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -2256,8 +2428,11 @@
       <c r="H62" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -2282,8 +2457,11 @@
       <c r="H63" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -2308,8 +2486,11 @@
       <c r="H64" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -2334,8 +2515,11 @@
       <c r="H65" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -2360,8 +2544,11 @@
       <c r="H66" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
@@ -2386,8 +2573,11 @@
       <c r="H67" s="2">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
@@ -2412,8 +2602,11 @@
       <c r="H68" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2438,8 +2631,11 @@
       <c r="H69" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
@@ -2464,8 +2660,11 @@
       <c r="H70" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2490,8 +2689,11 @@
       <c r="H71" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2516,8 +2718,11 @@
       <c r="H72" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
@@ -2541,6 +2746,9 @@
       </c>
       <c r="H73" s="2">
         <v>0.6</v>
+      </c>
+      <c r="I73" s="2">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
